--- a/分析/Analysis_of_Question_A.xlsx
+++ b/分析/Analysis_of_Question_A.xlsx
@@ -11,7 +11,6 @@
     <sheet name="Problem_objective" sheetId="2" r:id="rId2"/>
     <sheet name="Types_of_sub-questions" sheetId="3" r:id="rId3"/>
     <sheet name="Model_selection" sheetId="5" r:id="rId4"/>
-    <sheet name="Sheet3" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -178,6 +177,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="黑体"/>
+        <charset val="134"/>
+      </rPr>
       <t>1. 核心任务是基于</t>
     </r>
     <r>
@@ -208,6 +213,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="黑体"/>
+        <charset val="134"/>
+      </rPr>
       <t>1. 核心是基于</t>
     </r>
     <r>
@@ -235,6 +246,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="黑体"/>
+        <charset val="134"/>
+      </rPr>
       <t>1. 任务是基于</t>
     </r>
     <r>
@@ -265,6 +282,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="黑体"/>
+        <charset val="134"/>
+      </rPr>
       <t>1.</t>
     </r>
     <r>
@@ -298,6 +321,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="黑体"/>
+        <charset val="134"/>
+      </rPr>
       <t>2.</t>
     </r>
     <r>
@@ -1064,7 +1093,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1078,9 +1107,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1639,112 +1665,112 @@
   </cols>
   <sheetData>
     <row r="1" ht="247.5" customHeight="1" spans="1:2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" ht="45" spans="1:2">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9" t="s">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" ht="45" spans="1:2">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9" t="s">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" ht="45" spans="1:2">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9" t="s">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" ht="245" customHeight="1" spans="1:2">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" ht="45" spans="1:2">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9" t="s">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" ht="45" spans="1:2">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9" t="s">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" ht="30" spans="1:2">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9" t="s">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" ht="409.5" customHeight="1" spans="1:2">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" ht="45" spans="1:2">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9" t="s">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11" ht="30" spans="1:2">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9" t="s">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="12" ht="30" spans="1:2">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9" t="s">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="13" ht="15" spans="1:2">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9" t="s">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="14" ht="125" customHeight="1" spans="1:2">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="15" ht="30" spans="1:2">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9" t="s">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="16" ht="30" spans="1:2">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9" t="s">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="17" ht="30" spans="1:2">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9" t="s">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1777,100 +1803,100 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="2" ht="409.5" customHeight="1" spans="1:3">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="3" ht="45" spans="1:3">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9" t="s">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="4" ht="360" customHeight="1" spans="1:3">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" ht="30" spans="1:3">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9" t="s">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="6" ht="30" spans="1:3">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9" t="s">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="11"/>
+      <c r="C6" s="10"/>
     </row>
     <row r="7" ht="387.5" customHeight="1" spans="1:3">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="8" ht="30" spans="1:3">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9" t="s">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="9" ht="287.5" customHeight="1" spans="1:3">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="8" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="10" ht="45" spans="1:3">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9" t="s">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="8" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1904,85 +1930,85 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="2" ht="409.5" customHeight="1" spans="1:3">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="3" ht="60" spans="1:3">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9" t="s">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="4" ht="409.5" customHeight="1" spans="1:3">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="5" ht="60" spans="1:3">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9" t="s">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="6" ht="409.5" customHeight="1" spans="1:3">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="7" ht="45" spans="1:3">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9" t="s">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="8" ht="409.5" customHeight="1" spans="1:3">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="8" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="9" ht="77.5" spans="1:3">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9" t="s">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2007,8 +2033,8 @@
   <sheetPr/>
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="K9" sqref="$A1:$XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="2"/>
@@ -2042,7 +2068,7 @@
       </c>
     </row>
     <row r="3" ht="135" spans="1:3">
-      <c r="A3" s="5"/>
+      <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
         <v>63</v>
       </c>
@@ -2062,7 +2088,7 @@
       </c>
     </row>
     <row r="5" ht="165" spans="1:3">
-      <c r="A5" s="5"/>
+      <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
         <v>32</v>
       </c>
@@ -2071,11 +2097,11 @@
       </c>
     </row>
     <row r="6" ht="30" spans="1:3">
-      <c r="A6" s="5"/>
+      <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="6"/>
+      <c r="C6" s="5"/>
     </row>
     <row r="7" ht="387.5" customHeight="1" spans="1:3">
       <c r="A7" s="3" t="s">
@@ -2089,7 +2115,7 @@
       </c>
     </row>
     <row r="8" ht="165" spans="1:3">
-      <c r="A8" s="5"/>
+      <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
         <v>70</v>
       </c>
@@ -2109,7 +2135,7 @@
       </c>
     </row>
     <row r="10" ht="165" spans="1:3">
-      <c r="A10" s="5"/>
+      <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
         <v>43</v>
       </c>
@@ -2127,20 +2153,4 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
 </file>